--- a/biology/Mycologie/Infundibulicybe/Infundibulicybe.xlsx
+++ b/biology/Mycologie/Infundibulicybe/Infundibulicybe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Infundibulicybe est un genre de champignons basidiomycètes lamellés en forme d'entonnoir, que la classification linnéenne plaçait dans les Tricholomataceae. Il semble qu'il soit placés entre le clade IV Marasmioïde et le Clade V Tricholomatoïde.
 </t>
@@ -511,13 +523,15 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le latin infundibuliformis, qui a donné le mot français infundibuliforme, et qui suggère la forme d'entonnoir des clitocybe.
-Le nom correct complet (avec auteur) de ce taxon est Infundibulicybe Harmaja, 2003[1].
+Le nom correct complet (avec auteur) de ce taxon est Infundibulicybe Harmaja, 2003.
 Une publication en 2003 va replacer certaines espèces dans le genre Clitocybe
-[2],[3], et déterminer treize espèces.
-Une publication de 2006 développe une analyse phylogénétique place le genre entre le clade Marasmioïde et le clade Tricholomatoïde, étant le MRCA de ce dernier[4].
+ et déterminer treize espèces.
+Une publication de 2006 développe une analyse phylogénétique place le genre entre le clade Marasmioïde et le clade Tricholomatoïde, étant le MRCA de ce dernier.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Situation dans le phylogramme des Agaricales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agaricomycètes
@@ -592,9 +608,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (2 février 2023)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (2 février 2023) :
 Infundibulicybe alkaliviolascens (Bellù) Bellù, 2012
 Infundibulicybe altaica (Singer) Harmaja, 2003
 Infundibulicybe bresadolana (Singer) Harmaja, 2003
@@ -649,6 +667,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
